--- a/10_noticias.xlsx
+++ b/10_noticias.xlsx
@@ -448,120 +448,120 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">     Ministro confirma suspensão de novo ensino médio, mas refuta revogação </t>
+          <t xml:space="preserve">     Veja quem são 5 dos 9 atletas investigados por suspeita de manipulação de jogos de futebol </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://www1.folha.uol.com.br/educacao/2023/04/ministro-confirma-suspensao-de-cronograma-do-novo-ensino-medio-mas-refuta-revogacao.shtml</t>
+          <t>https://www.uol.com.br/esporte/futebol/ultimas-noticias/2023/04/18/quem-sao-os-jogadores-envolvidos-em-suspeita-de-manipulacao-no-futebol.htm</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">     Bolsonaro devolve 3º conjunto de joias recebido da Arábia </t>
+          <t xml:space="preserve">  Recuo em taxação de compras internacionais teve pressão de Janja e veto de Lula </t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://noticias.uol.com.br/politica/ultimas-noticias/2023/04/04/defesa-de-bolsonaro-devolve-3-kit-de-joias-avaliado-em-r-500-mil.htm</t>
+          <t>https://www1.folha.uol.com.br/mercado/2023/04/recuo-em-medida-que-afeta-compras-internacionais-teve-pressao-de-janja-e-veto-de-lula.shtml</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">     Governo debate meta de inflação, e 'ninguém é dono da verdade', diz Haddad </t>
+          <t xml:space="preserve">     Salário de R$ 20 mil e ódio contra STF: quem é o militar preso pelo 8/1 </t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://economia.uol.com.br/noticias/redacao/2023/04/04/haddad-em-evento-bradesco.htm</t>
+          <t>https://noticias.uol.com.br/politica/ultimas-noticias/2023/04/18/quem-e-tenente-coronel-preso.htm</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">     Anitta deixa a Warner após expor conflitos com a gravadora </t>
+          <t xml:space="preserve">     Rodrygo faz dois, Real Madrid bate Chelsea e vai à 3ª semifinal seguida na Champions </t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://www.uol.com.br/splash/colunas/lucas-pasin/2023/04/04/anitta-deixa-a-warner-music-apos-expor-conflitos-com-a-gravadora.htm</t>
+          <t>https://www.uol.com.br/esporte/futebol/ultimas-noticias/2023/04/18/chelsea-x-real-madrid---champions-league.htm</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Após 12 anos, barragem enche e população faz festa no sertão do CE </t>
+          <t xml:space="preserve">     'Não somos obrigados a seguir todas as opiniões dos Estados Unidos', diz Celso Amorim </t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://noticias.uol.com.br/colunas/carlos-madeiro/2023/04/04/apos-12-anos-barragem-enche-e-populacao-faz-festa-no-sertao-do-ce-assista.htm</t>
+          <t>https://www1.folha.uol.com.br/colunas/monicabergamo/2023/04/nao-somos-obrigados-a-seguir-todas-as-opinioes-dos-eua-diz-celso-amorim.shtml</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">     Aumento de 258% para Zema é aprovado em 1º turno na Assembleia de Minas Gerais </t>
+          <t xml:space="preserve">     Justiça cassa pensão paga pela União a filhos de petista morto por bolsonarista em Foz </t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://www1.folha.uol.com.br/poder/2023/04/aumento-de-258-para-zema-e-aprovado-em-1o-turno-na-assembleia-de-minas.shtml</t>
+          <t>https://noticias.uol.com.br/cotidiano/ultimas-noticias/2023/04/18/justica-cassa-pensao-de-filhos-de-petista-morto-por-bolsonarista-em-foz.htm</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Plano do governo Lula para negociação com Congresso dribla STF ao simular emendas </t>
+          <t xml:space="preserve">     TV: Agressora de entregadores disse ter sofrido homofobia </t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://www1.folha.uol.com.br/poder/2023/04/arranjo-de-lula-para-dar-dinheiro-ao-congresso-dribla-stf-ao-simular-emendas.shtml</t>
+          <t>https://noticias.uol.com.br/cotidiano/ultimas-noticias/2023/04/18/agressora-entregadores-rio-de-janeiro-diz-ser-vitima-homofobia.htm</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">     Desconfio que o plano do Abel sempre foi o de usar os reservas contra Bolívar, diz Julio Gomes </t>
+          <t xml:space="preserve">     Ibama recolhe 55 aves na casa de Anderson Torres; ex-ministro é autuado por mutilação </t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://www.uol.com.br/esporte/futebol/ultimas-noticias/2023/04/04/desconfio-que-o-plano-do-abel-sempre-foi-levar-os-reservas-diz-julio-gomes.htm</t>
+          <t>https://noticias.uol.com.br/politica/ultimas-noticias/2023/04/18/anderson-torres-ibama-aves.htm</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">     Pedro Sampaio teve conversa longa com Lulu Santos antes de se assumir bissexual  </t>
+          <t xml:space="preserve">     Quem é a única visita constante de Daniel Alves na prisão </t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://www.uol.com.br/splash/noticias/2023/04/04/pedro-sampaio.htm</t>
+          <t>https://www.uol.com.br/esporte/futebol/ultimas-noticias/2023/04/18/chef-de-cozinha-quem-e-a-unica-visita-constante-de-daniel-alves-na-prisao.htm</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">     Globo demite Eduardo Tchao, Mônica Sanches e Marcelo Canellas </t>
+          <t xml:space="preserve">     Brasil ainda aguarda confirmação da prisão de Thiago Brennand para extradição </t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://www.uol.com.br/splash/noticias/2023/04/04/demissoes-globo-jornalismo.htm</t>
+          <t>https://www1.folha.uol.com.br/cotidiano/2023/04/brasil-ainda-aguarda-confirmacao-da-prisao-de-thiago-brennand-para-extradicao.shtml</t>
         </is>
       </c>
     </row>
